--- a/500all/speech_level/speeches_CHRG-114hhrg21546.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21546.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412472</t>
   </si>
   <si>
-    <t>Jeff Duncan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. A quorum being present, the subcommittee will come to order. I would now like to recognize myself for an opening statement on the hearing Nicaragua's Democratic Collapse.    We meet today to register our deep concern over the collapse of democracy in Nicaragua and conduct oversight of the Obama administration's priorities in the country, in view of U.S. interests and recent events.    While Nicaragua does not suffer the same problems with citizen security, gang wars, or migration to the United States as the Northern Triangle countries have experienced, it is the poorest Central American country and second poorest in the Western Hemisphere, only after Haiti.    Under President Ortega's multiple terms as President, he has taken increasingly blatant steps to concentrate political power into a single party FSLN-ruled system controlling the majority at executive, legislative, judicial, and electoral branches of government. In 2011, 2012, 2014 elections, the State Department and other observers found fraud and other major irregularities had occurred. Since then, the State Department has documented in several reports that Nicaraguan Government agents have committed arbitrary or unlawful killings, used excessive force and torture in prisons, and limited the Nicaraguan people's freedom of speech, religion, and the press.    Compounding these problems, in 2014 the FSLN-dominated National Assembly passed 97 constitutional amendments and Ortega pushed through a new military code and reform of the National Police, giving Ortega more political control over the country. Ortega also appointed his sons and daughters positions of Ambassador, Presidential advisor, and his wife holds the post of communication minister, government spokesperson and now is a Vice Presidential pick ahead of the November 6 elections, even though Nicaragua's Constitution bars those related to the President from being a candidate for Vice President.    In June, the Supreme Court stripped the opposition Independent Liberal Party, PLI, and the Citizen Action Party, PAC, of their chosen leaders.    In July, the Supreme Electoral Council removed 28 PLI National Assembly members from their democratically elected positions. Ortega has even announced that no international election observers will be allowed for the November election, despite the wishes of the Nicaraguan civil society. Such an erosion of democracy and freedom and utter disregard for the rule of law and human rights should elicit cries of outrage from democratic countries in Latin America, and the Caribbean, and from the Obama administration. Yet, while a few countries have made statements and the OAS, Organization of American States, and Human Rights Foundation have expressed concerns, nothing more has happened.    Today, there appears to be no cost to Ortega for undermining democracy and the rule of law in the pursuit of his own personal interests.    The United States has national interests at stake in Nicaragua and Central America. Nicaragua is a member of the Central American Free Trade Agreement, CAFTA-DR, thus, benefitting from access to U.S. markets. There are multiple U.S. businesses operating in the country, 177 Peace Corps volunteers reflecting the U.S. spirit of compassion, and many U.S. citizens have chosen to retire there.    Strategically, Nicaragua occupies the geographic center of Central America and is, therefore, key not only for legitimate commerce but also for drugs, contraband goods, migrant flows, and potential security challenges to the Northern Hemisphere. That said, we want to see a stable, prosperous Nicaragua that adheres to democratic principles, respects the rule of law and separation of powers, supports human rights, and responds to the will of the Nicaraguan people. We want to see that Nicaragua and all Central America achieve greater security and economic growth, limit migration north to the United States, and minimize the strategic influence of actors like China, Russia, and Iran from establishing a greater presence in the region. Unfortunately, under Ortega's tenure just the opposite is occurring.    Furthermore, Ortega has displayed clear contempt for the common accepted principles of government-to-government relations with the United States through the expulsion of three U.S. citizens traveling on official U.S. business in June from the country. This follows the expulsion of Freedom House's Latin American programs director and students from Mexico National Autonomous University earlier this year.    Ortega has also continued to pursue deeper relations with China through the Inter-Oceanic Canal Project, even though there appears to be limited progress on this canal and tremendous public opposition to his construction, Ortega has given the Hong Kong-based company HKND enormous discretion in building and operating the canal. Moreover, Russia has also been building stronger military ties to Nicaragua. Russia recently sold 50 T-72 tanks to Nicaragua, established and is expanding a large law enforcement training center in Managua, and gained access to Nicaragua's air space and ports.    Iran has also continued courting Nicaragua, sporadically pursuing interest in Nicaraguan ports during the last decade, a strong diplomatic presence, and student exchanges with Iranian religious schools. Iran's continuing interest in Nicaragua was highlighted by a visit last month by Iranian Foreign Minister Zarif, where Zarif expressed interest in collaborating with Nicaragua on the Inter-Oceanic Canal and extending economic energy and trade ties.    So, given the U.S. interest in Asia, the Middle East, and Europe, I am left wondering what the Obama administration is doing to understand and respond to the strategic implications of these countries' overtures to Nicaragua and to reassure our friends in the region, such as Costa Rica and Colombia, that we have particular concerns with Nicaragua's expanding military relationship with Russia.    The State Department's fiscal year 2017 budget requests included over $14 million for Nicaragua. Although I support providing assistance to promote U.S. interests, given the current landscape in Nicaragua, I am deeply skeptical as to the effectiveness of the administration's priorities and efforts in the country. After all, the situation looks very bleak ahead of the November elections.    If Ortega continues with his current activities, perhaps instead it is a time for the administration to consider a re-think of its constructive engagement policy toward Nicaragua. To that end, what has the current U.S. policy achieved? Is Nicaragua more or less democratic? To what degree has the administration's policy help dissuade Nicaragua from pursuing partnerships with countries like Iran and Russia that potentially threaten U.S. interest in the region? If things do not change before the election, I believe the State Department should very strongly consider sanctions denying Nicaragua the benefits of CAFTA-DR and work with the Treasury Department to vote against loans in the international lending institutions until the Government of Nicaragua takes steps to respect freedom, fair and open elections, democracy, and the rule of law.    So with that, I will turn to the ranking member for his opening statement.</t>
   </si>
   <si>
     <t>412186</t>
   </si>
   <si>
-    <t>Albio Sires</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman, for holding this hearing and thank you to our witnesses who have joined us here today.    Since winning the presidency a decade ago, Daniel Ortega has pursued a goal of gaining absolute political control over Nicaraguan society. With the November 6th Presidential election in Nicaragua approaching, and with his control over all the nation's public institutions, Ortega is poised to win his third consecutive term, this time with his wife serving as his running mate.    How has Ortega been able to concentrate his power? Not satisfied with simply winning an election widely deemed fraudulent in 2006 and 2011, as President, Ortega has used his influence to gain control over the courts, rescind Presidential term limits, disqualify opposition leaders from running for office, remove opposition lawmakers from the National Assembly, and ban international election observers from the country.    The opposition party including the largest, PLI, Independent Liberal Party, are fractured and in no position to effectively confront Ortega's overwhelming political power and influence. Both the Obama administration and Congress have expressed grave concerns over Ortega's blatant, undemocratic power grab, as well as his expulsion of the opposition legislators and U.S. citizens.    Earlier this year, Ortega's Government needlessly expelled an American scholar from the American War College doing research on the supposed Nicaragua Canal. Additionally, they have also expelled two U.S. Embassy officials without cause and routinely harassed American visitors traveling down to Nicaragua.    Congress and the administration need to work together and find ways to empower the Nicaraguan people and counteract Ortega's hostile behavior toward innocent civilians. That is why I was proud to work with my good friend from Florida, Congresswoman Ros-Lehtinen and our Chairman Duncan, among several other colleagues from both sides of the aisle to introduce and pass H.R. 5708, the Nicaragua Investment Conditionality Act, NICA.    H.R. 5708 calls on the U.S. Government to oppose loans at international financial institutions for Nicaragua, unless the Nicaraguan Government takes effective steps to hold free, fair, and transparent elections and commits to upholding democratic principle. It is my hope that this legislation will pass the Senate and quickly be signed into law by President Obama.    I look forward to hearing from our witnesses their points of view regarding the current situation in Nicaragua and how the U.S. and the international community can effectively respond to the non-democratic actions of Daniel Ortega.    Thank you.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. I will take that.</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>412576</t>
   </si>
   <si>
-    <t>Joaquin Castro</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Castro. Thank you, Chairman, and thank you for holding this hearing today.    The United States has an interest in making sure that around the world, particularly with allied nations, human rights and democracy are respected, whether their leaders fall on the right side of the spectrum or the left side of the spectrum, whether they are liberal, or conservative, or communists, or fascists, making sure that these nations have leaders who respect their people. That means respecting the institutions of democracy. And what we have seen in Nicaragua is especially troubling.    And so, I look forward to the testimony and thank you for holding the hearing. I yield back.</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gonzalez. Thank you, Mr. Chairman, ranking members, and members of the committee. It is an honor to testify before you today. I have submitted my testimony for the record and I thought, with your concurrence, I would use my time just to highlight the main points.</t>
   </si>
   <si>
@@ -130,9 +115,6 @@
     <t xml:space="preserve">    Mr. Duncan. Thank you, Mr. Gonzalez.    Now, I will recognize the Honorable Marcela Escobari for 5 minutes.</t>
   </si>
   <si>
-    <t>Escobari</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Escobari. Chairman Duncan and Ranking Member Sires, and members of the subcommittee, thank you for the opportunity to testify before you today and for speaking out on the Government of Nicaragua's efforts to restrict democracy.    I am grateful for the committee's support for the work of USAID and for your leadership in our engagement in Central America. I have actually just come back from the Northern Triangle and I saw firsthand how our support is making a difference. This is a historic opportunity to help these countries in their effort to improve the lives of their citizens and the political will for reform is definitely there.    Despite significant challenges, citizens are demanding accountability and local institutions are responding from CICIG in Guatemala to the show of independence in the Attorney General offices of each of these three countries, they are making significant strides in accountability and transparency.    These gains are in stark contrast to the situation in Nicaragua, where the Ortega administration continues to close democratic space and consolidate power. Nicaragua is the second poorest nation in the Western Hemisphere. The country has yet to reach the levels of income per capita it had in 1978. Criminal activities and violence are on the rise on the country's Caribbean coast, which is also the area with the worst poverty indicators, where 40 percent of boys and girls do not attend school. This is not a country that can afford a government that refuses to be held accountable and respond to those most in need of assistance.    We must continue to support the people of Nicaragua in their efforts to participate in the democratic process. And two-thirds of USAID's bilateral assistance focuses on this priority. We are supporting over 60 civil society organizations to help them be effective in advocating for citizens' rights. We are also helping nurture the next generation of civic leaders. We work with a network of over 2,000 young people who have participated in our leadership programs. They are leading local initiatives that matter to them, from bringing drinkable water to their communities to advocating for human rights but they are also increasingly making up the ranks of leadership in public and private organizations. These efforts are allowing them to exercise their political muscle and see results.    As a result of USAID efforts, citizens are also holding municipal governments accountable, exercising democratic principles at a local level. Citizens have submitted nearly 200 proposals to extend services for youth, women, and the disabled in nine municipalities and nearly half of these proposals, worth over $1.6 million, have been incorporated in municipal budgets.    We are also strengthening independent media, as they face restrictive regulations and dwindling resources as advertisers pay a political cost for their support. USAID works with over 20 organizations in press, radio, and television to strengthen their operations and help them be more effective.    While democracy and governance remain USAID's priorities in Nicaragua, we also support citizen security and education in the autonomous Caribbean coast, where the worst poverty indicators exist. USAID education programs help improve early grade reading, which is an important determinant in keeping kids in school. Our vocational programs with the private sector are helping youth become employable with skills in carpentry, plumbing, car repairs, and ultimately become productive members of their society. The autonomous Caribbean region is home to the most isolated and vulnerable populations in Nicaragua and helping these populations prosper is also crucial to a thriving and healthy democracy.    USAID will continue to evaluate and adjust our programs in Nicaragua so that they remain effective and, looking forward, will continue to elevate Nicaragua's most prominent civil society organizations and connect them with organizations around the globe who are facing similar challenges. It is imperative that the U.S. Government continue to engage and stand by the people of Nicaragua. We are a lifeline that helps them advocate for their rights and freedoms in an increasingly challenging environment.    We share a commitment to democratic governance with our regional neighbors. As stated in the Inter-American Democratic Charter, the peoples of the Americas have a right to democracy and their governments have an obligation to promote and defend it.    I want to thank this committee again for your leadership and support and I look forward to your continued counsel and welcome your questions.</t>
   </si>
   <si>
@@ -176,9 +158,6 @@
   </si>
   <si>
     <t>412525</t>
-  </si>
-  <si>
-    <t>Ted S. Yoho</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman. I appreciate the meeting here.    And I want to spin off of my colleague, Mr. Sires, about here we are the second poorest country in the Western Hemisphere, yet, they are buying tanks and planes from Russia. And we engage in the IMET Initiative, the International Military and Education Training. What are we benefitting out of this? Are we showing them our techniques and our skills and all that? And they are using Russian forces. Is that benefitting us and who are they preparing for an invasion from? Or is it like Ms. Ros-Lehtinen said, to keep oppression on the people?</t>
@@ -754,11 +733,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -778,13 +755,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -806,11 +781,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -830,13 +803,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -858,11 +829,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -882,13 +851,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -910,11 +877,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -934,13 +899,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -962,11 +925,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -986,13 +947,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1014,11 +973,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1038,13 +995,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1066,11 +1021,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1090,13 +1043,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1118,11 +1069,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1142,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1170,11 +1117,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1194,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1222,11 +1165,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1246,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1272,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1298,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1324,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
         <v>38</v>
-      </c>
-      <c r="H24" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1350,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1376,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1402,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1428,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1454,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1480,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1506,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1534,11 +1453,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1558,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1584,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1610,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1636,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1662,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1688,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1714,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
         <v>54</v>
-      </c>
-      <c r="H39" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1740,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1766,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1792,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1818,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1844,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" t="s">
-        <v>38</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1870,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1896,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" t="s">
-        <v>38</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1922,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G47" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1950,11 +1837,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1974,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2000,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2026,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2052,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2078,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2104,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2130,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2156,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2182,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2208,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2234,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2262,11 +2125,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2288,11 +2149,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2312,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2338,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2364,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2390,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2416,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2442,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G67" t="s">
-        <v>38</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2468,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2496,11 +2341,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2520,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2548,11 +2389,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2572,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2600,11 +2437,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2624,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2652,11 +2485,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2676,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2702,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2728,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
-      </c>
-      <c r="G78" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2754,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2780,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>28</v>
-      </c>
-      <c r="G80" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2808,11 +2629,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2832,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>53</v>
-      </c>
-      <c r="G82" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2858,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
-      </c>
-      <c r="G83" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2884,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>53</v>
-      </c>
-      <c r="G84" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2910,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G85" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2936,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>53</v>
-      </c>
-      <c r="G86" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2962,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
-      </c>
-      <c r="G87" t="s">
-        <v>38</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2988,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>53</v>
-      </c>
-      <c r="G88" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3014,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G89" t="s">
-        <v>38</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3040,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>53</v>
-      </c>
-      <c r="G90" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3068,11 +2869,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21546.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21546.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412472</t>
   </si>
   <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Duncan. A quorum being present, the subcommittee will come to order. I would now like to recognize myself for an opening statement on the hearing Nicaragua's Democratic Collapse.    We meet today to register our deep concern over the collapse of democracy in Nicaragua and conduct oversight of the Obama administration's priorities in the country, in view of U.S. interests and recent events.    While Nicaragua does not suffer the same problems with citizen security, gang wars, or migration to the United States as the Northern Triangle countries have experienced, it is the poorest Central American country and second poorest in the Western Hemisphere, only after Haiti.    Under President Ortega's multiple terms as President, he has taken increasingly blatant steps to concentrate political power into a single party FSLN-ruled system controlling the majority at executive, legislative, judicial, and electoral branches of government. In 2011, 2012, 2014 elections, the State Department and other observers found fraud and other major irregularities had occurred. Since then, the State Department has documented in several reports that Nicaraguan Government agents have committed arbitrary or unlawful killings, used excessive force and torture in prisons, and limited the Nicaraguan people's freedom of speech, religion, and the press.    Compounding these problems, in 2014 the FSLN-dominated National Assembly passed 97 constitutional amendments and Ortega pushed through a new military code and reform of the National Police, giving Ortega more political control over the country. Ortega also appointed his sons and daughters positions of Ambassador, Presidential advisor, and his wife holds the post of communication minister, government spokesperson and now is a Vice Presidential pick ahead of the November 6 elections, even though Nicaragua's Constitution bars those related to the President from being a candidate for Vice President.    In June, the Supreme Court stripped the opposition Independent Liberal Party, PLI, and the Citizen Action Party, PAC, of their chosen leaders.    In July, the Supreme Electoral Council removed 28 PLI National Assembly members from their democratically elected positions. Ortega has even announced that no international election observers will be allowed for the November election, despite the wishes of the Nicaraguan civil society. Such an erosion of democracy and freedom and utter disregard for the rule of law and human rights should elicit cries of outrage from democratic countries in Latin America, and the Caribbean, and from the Obama administration. Yet, while a few countries have made statements and the OAS, Organization of American States, and Human Rights Foundation have expressed concerns, nothing more has happened.    Today, there appears to be no cost to Ortega for undermining democracy and the rule of law in the pursuit of his own personal interests.    The United States has national interests at stake in Nicaragua and Central America. Nicaragua is a member of the Central American Free Trade Agreement, CAFTA-DR, thus, benefitting from access to U.S. markets. There are multiple U.S. businesses operating in the country, 177 Peace Corps volunteers reflecting the U.S. spirit of compassion, and many U.S. citizens have chosen to retire there.    Strategically, Nicaragua occupies the geographic center of Central America and is, therefore, key not only for legitimate commerce but also for drugs, contraband goods, migrant flows, and potential security challenges to the Northern Hemisphere. That said, we want to see a stable, prosperous Nicaragua that adheres to democratic principles, respects the rule of law and separation of powers, supports human rights, and responds to the will of the Nicaraguan people. We want to see that Nicaragua and all Central America achieve greater security and economic growth, limit migration north to the United States, and minimize the strategic influence of actors like China, Russia, and Iran from establishing a greater presence in the region. Unfortunately, under Ortega's tenure just the opposite is occurring.    Furthermore, Ortega has displayed clear contempt for the common accepted principles of government-to-government relations with the United States through the expulsion of three U.S. citizens traveling on official U.S. business in June from the country. This follows the expulsion of Freedom House's Latin American programs director and students from Mexico National Autonomous University earlier this year.    Ortega has also continued to pursue deeper relations with China through the Inter-Oceanic Canal Project, even though there appears to be limited progress on this canal and tremendous public opposition to his construction, Ortega has given the Hong Kong-based company HKND enormous discretion in building and operating the canal. Moreover, Russia has also been building stronger military ties to Nicaragua. Russia recently sold 50 T-72 tanks to Nicaragua, established and is expanding a large law enforcement training center in Managua, and gained access to Nicaragua's air space and ports.    Iran has also continued courting Nicaragua, sporadically pursuing interest in Nicaraguan ports during the last decade, a strong diplomatic presence, and student exchanges with Iranian religious schools. Iran's continuing interest in Nicaragua was highlighted by a visit last month by Iranian Foreign Minister Zarif, where Zarif expressed interest in collaborating with Nicaragua on the Inter-Oceanic Canal and extending economic energy and trade ties.    So, given the U.S. interest in Asia, the Middle East, and Europe, I am left wondering what the Obama administration is doing to understand and respond to the strategic implications of these countries' overtures to Nicaragua and to reassure our friends in the region, such as Costa Rica and Colombia, that we have particular concerns with Nicaragua's expanding military relationship with Russia.    The State Department's fiscal year 2017 budget requests included over $14 million for Nicaragua. Although I support providing assistance to promote U.S. interests, given the current landscape in Nicaragua, I am deeply skeptical as to the effectiveness of the administration's priorities and efforts in the country. After all, the situation looks very bleak ahead of the November elections.    If Ortega continues with his current activities, perhaps instead it is a time for the administration to consider a re-think of its constructive engagement policy toward Nicaragua. To that end, what has the current U.S. policy achieved? Is Nicaragua more or less democratic? To what degree has the administration's policy help dissuade Nicaragua from pursuing partnerships with countries like Iran and Russia that potentially threaten U.S. interest in the region? If things do not change before the election, I believe the State Department should very strongly consider sanctions denying Nicaragua the benefits of CAFTA-DR and work with the Treasury Department to vote against loans in the international lending institutions until the Government of Nicaragua takes steps to respect freedom, fair and open elections, democracy, and the rule of law.    So with that, I will turn to the ranking member for his opening statement.</t>
   </si>
   <si>
     <t>412186</t>
   </si>
   <si>
+    <t>Sires</t>
+  </si>
+  <si>
+    <t>Albio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman, for holding this hearing and thank you to our witnesses who have joined us here today.    Since winning the presidency a decade ago, Daniel Ortega has pursued a goal of gaining absolute political control over Nicaraguan society. With the November 6th Presidential election in Nicaragua approaching, and with his control over all the nation's public institutions, Ortega is poised to win his third consecutive term, this time with his wife serving as his running mate.    How has Ortega been able to concentrate his power? Not satisfied with simply winning an election widely deemed fraudulent in 2006 and 2011, as President, Ortega has used his influence to gain control over the courts, rescind Presidential term limits, disqualify opposition leaders from running for office, remove opposition lawmakers from the National Assembly, and ban international election observers from the country.    The opposition party including the largest, PLI, Independent Liberal Party, are fractured and in no position to effectively confront Ortega's overwhelming political power and influence. Both the Obama administration and Congress have expressed grave concerns over Ortega's blatant, undemocratic power grab, as well as his expulsion of the opposition legislators and U.S. citizens.    Earlier this year, Ortega's Government needlessly expelled an American scholar from the American War College doing research on the supposed Nicaragua Canal. Additionally, they have also expelled two U.S. Embassy officials without cause and routinely harassed American visitors traveling down to Nicaragua.    Congress and the administration need to work together and find ways to empower the Nicaraguan people and counteract Ortega's hostile behavior toward innocent civilians. That is why I was proud to work with my good friend from Florida, Congresswoman Ros-Lehtinen and our Chairman Duncan, among several other colleagues from both sides of the aisle to introduce and pass H.R. 5708, the Nicaragua Investment Conditionality Act, NICA.    H.R. 5708 calls on the U.S. Government to oppose loans at international financial institutions for Nicaragua, unless the Nicaraguan Government takes effective steps to hold free, fair, and transparent elections and commits to upholding democratic principle. It is my hope that this legislation will pass the Senate and quickly be signed into law by President Obama.    I look forward to hearing from our witnesses their points of view regarding the current situation in Nicaragua and how the U.S. and the international community can effectively respond to the non-democratic actions of Daniel Ortega.    Thank you.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Ros-Lehtinen</t>
+  </si>
+  <si>
+    <t>Ileana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. I will take that.</t>
   </si>
   <si>
@@ -94,6 +115,12 @@
     <t>412576</t>
   </si>
   <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>Joaquin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Castro. Thank you, Chairman, and thank you for holding this hearing today.    The United States has an interest in making sure that around the world, particularly with allied nations, human rights and democracy are respected, whether their leaders fall on the right side of the spectrum or the left side of the spectrum, whether they are liberal, or conservative, or communists, or fascists, making sure that these nations have leaders who respect their people. That means respecting the institutions of democracy. And what we have seen in Nicaragua is especially troubling.    And so, I look forward to the testimony and thank you for holding the hearing. I yield back.</t>
   </si>
   <si>
@@ -103,6 +130,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gonzalez. Thank you, Mr. Chairman, ranking members, and members of the committee. It is an honor to testify before you today. I have submitted my testimony for the record and I thought, with your concurrence, I would use my time just to highlight the main points.</t>
   </si>
   <si>
@@ -115,6 +145,9 @@
     <t xml:space="preserve">    Mr. Duncan. Thank you, Mr. Gonzalez.    Now, I will recognize the Honorable Marcela Escobari for 5 minutes.</t>
   </si>
   <si>
+    <t>Escobari</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Escobari. Chairman Duncan and Ranking Member Sires, and members of the subcommittee, thank you for the opportunity to testify before you today and for speaking out on the Government of Nicaragua's efforts to restrict democracy.    I am grateful for the committee's support for the work of USAID and for your leadership in our engagement in Central America. I have actually just come back from the Northern Triangle and I saw firsthand how our support is making a difference. This is a historic opportunity to help these countries in their effort to improve the lives of their citizens and the political will for reform is definitely there.    Despite significant challenges, citizens are demanding accountability and local institutions are responding from CICIG in Guatemala to the show of independence in the Attorney General offices of each of these three countries, they are making significant strides in accountability and transparency.    These gains are in stark contrast to the situation in Nicaragua, where the Ortega administration continues to close democratic space and consolidate power. Nicaragua is the second poorest nation in the Western Hemisphere. The country has yet to reach the levels of income per capita it had in 1978. Criminal activities and violence are on the rise on the country's Caribbean coast, which is also the area with the worst poverty indicators, where 40 percent of boys and girls do not attend school. This is not a country that can afford a government that refuses to be held accountable and respond to those most in need of assistance.    We must continue to support the people of Nicaragua in their efforts to participate in the democratic process. And two-thirds of USAID's bilateral assistance focuses on this priority. We are supporting over 60 civil society organizations to help them be effective in advocating for citizens' rights. We are also helping nurture the next generation of civic leaders. We work with a network of over 2,000 young people who have participated in our leadership programs. They are leading local initiatives that matter to them, from bringing drinkable water to their communities to advocating for human rights but they are also increasingly making up the ranks of leadership in public and private organizations. These efforts are allowing them to exercise their political muscle and see results.    As a result of USAID efforts, citizens are also holding municipal governments accountable, exercising democratic principles at a local level. Citizens have submitted nearly 200 proposals to extend services for youth, women, and the disabled in nine municipalities and nearly half of these proposals, worth over $1.6 million, have been incorporated in municipal budgets.    We are also strengthening independent media, as they face restrictive regulations and dwindling resources as advertisers pay a political cost for their support. USAID works with over 20 organizations in press, radio, and television to strengthen their operations and help them be more effective.    While democracy and governance remain USAID's priorities in Nicaragua, we also support citizen security and education in the autonomous Caribbean coast, where the worst poverty indicators exist. USAID education programs help improve early grade reading, which is an important determinant in keeping kids in school. Our vocational programs with the private sector are helping youth become employable with skills in carpentry, plumbing, car repairs, and ultimately become productive members of their society. The autonomous Caribbean region is home to the most isolated and vulnerable populations in Nicaragua and helping these populations prosper is also crucial to a thriving and healthy democracy.    USAID will continue to evaluate and adjust our programs in Nicaragua so that they remain effective and, looking forward, will continue to elevate Nicaragua's most prominent civil society organizations and connect them with organizations around the globe who are facing similar challenges. It is imperative that the U.S. Government continue to engage and stand by the people of Nicaragua. We are a lifeline that helps them advocate for their rights and freedoms in an increasingly challenging environment.    We share a commitment to democratic governance with our regional neighbors. As stated in the Inter-American Democratic Charter, the peoples of the Americas have a right to democracy and their governments have an obligation to promote and defend it.    I want to thank this committee again for your leadership and support and I look forward to your continued counsel and welcome your questions.</t>
   </si>
   <si>
@@ -158,6 +191,12 @@
   </si>
   <si>
     <t>412525</t>
+  </si>
+  <si>
+    <t>Yoho</t>
+  </si>
+  <si>
+    <t>Ted</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman. I appreciate the meeting here.    And I want to spin off of my colleague, Mr. Sires, about here we are the second poorest country in the Western Hemisphere, yet, they are buying tanks and planes from Russia. And we engage in the IMET Initiative, the International Military and Education Training. What are we benefitting out of this? Are we showing them our techniques and our skills and all that? And they are using Russian forces. Is that benefitting us and who are they preparing for an invasion from? Or is it like Ms. Ros-Lehtinen said, to keep oppression on the people?</t>
@@ -683,7 +722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +730,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,2165 +752,2554 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
       <c r="H11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G33" t="s">
+        <v>59</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G35" t="s">
+        <v>59</v>
+      </c>
       <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G41" t="s">
+        <v>59</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G43" t="s">
+        <v>59</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G45" t="s">
+        <v>59</v>
+      </c>
       <c r="H45" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G47" t="s">
+        <v>59</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G49" t="s">
+        <v>33</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G51" t="s">
+        <v>33</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G52" t="s">
+        <v>38</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G54" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
+        <v>33</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G57" t="s">
+        <v>33</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G59" t="s">
+        <v>33</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G65" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G67" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>22</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G70" t="s">
+        <v>38</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G72" t="s">
+        <v>38</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G74" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G76" t="s">
+        <v>33</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>28</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G77" t="s">
+        <v>38</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G78" t="s">
+        <v>33</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G79" t="s">
+        <v>38</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G80" t="s">
+        <v>33</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>47</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G82" t="s">
+        <v>59</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G83" t="s">
+        <v>38</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>47</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G84" t="s">
+        <v>59</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G85" t="s">
+        <v>38</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G86" t="s">
+        <v>59</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G87" t="s">
+        <v>43</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>47</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G88" t="s">
+        <v>59</v>
+      </c>
       <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G89" t="s">
+        <v>43</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>47</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G90" t="s">
+        <v>59</v>
+      </c>
       <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21546.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21546.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412472</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Duncan</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412186</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sires</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
   </si>
   <si>
     <t>400344</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Ros-Lehtinen</t>
@@ -722,7 +734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,7 +742,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,2551 +767,2760 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G33" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G39" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G47" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H49" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
-      </c>
-      <c r="G50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H51" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G52" t="s">
-        <v>38</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H53" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
-      </c>
-      <c r="G54" t="s">
-        <v>38</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H55" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
-      </c>
-      <c r="G56" t="s">
-        <v>38</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H57" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
-      </c>
-      <c r="G58" t="s">
-        <v>38</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>42</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H59" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G62" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
-      </c>
-      <c r="G63" t="s">
-        <v>38</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>42</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G64" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
-      </c>
-      <c r="G65" t="s">
-        <v>38</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>42</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G66" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H66" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
-      </c>
-      <c r="G67" t="s">
-        <v>43</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G68" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H68" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
-      </c>
-      <c r="G70" t="s">
-        <v>38</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>42</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
-      </c>
-      <c r="G72" t="s">
-        <v>38</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>42</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
-      </c>
-      <c r="G74" t="s">
-        <v>38</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>42</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H76" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G77" t="s">
-        <v>38</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>42</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H78" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
-      </c>
-      <c r="G79" t="s">
-        <v>38</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>42</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H80" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G82" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H82" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
-      </c>
-      <c r="G83" t="s">
-        <v>38</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>42</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G84" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H84" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
-      </c>
-      <c r="G85" t="s">
-        <v>38</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>42</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G86" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H86" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
-      </c>
-      <c r="G87" t="s">
-        <v>43</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G88" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H88" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
-      </c>
-      <c r="G89" t="s">
-        <v>43</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G90" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H90" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>119</v>
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
